--- a/RessourcesForCodingTheProject/NewScripts/QAExcelCompiler/QAfolder/Eric_Quest/Quest_LQA_FRE.xlsx
+++ b/RessourcesForCodingTheProject/NewScripts/QAExcelCompiler/QAfolder/Eric_Quest/Quest_LQA_FRE.xlsx
@@ -1,160 +1,38 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PEARL\260105 LQA DATASHEETS\QuestData_Map_All\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB56EB9F-8E54-40CE-B48A-928AA5A14D80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Main Quest" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Main Quest" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="37">
-  <si>
-    <t>Original</t>
-  </si>
-  <si>
-    <t>ENG</t>
-  </si>
-  <si>
-    <t>FRE</t>
-  </si>
-  <si>
-    <t>StringKey</t>
-  </si>
-  <si>
-    <t>Command</t>
-  </si>
-  <si>
-    <t>STATUS</t>
-  </si>
-  <si>
-    <t>COMMENT</t>
-  </si>
-  <si>
-    <t>STRINGID</t>
-  </si>
-  <si>
-    <t>SCREENSHOT</t>
-  </si>
-  <si>
-    <t>Prologue. 깊은 밤</t>
-  </si>
-  <si>
-    <t>Prologue. The Dead of Night</t>
-  </si>
-  <si>
-    <t>1887229000892285192</t>
-  </si>
-  <si>
-    <t>기습</t>
-  </si>
-  <si>
-    <t>Ambush</t>
-  </si>
-  <si>
-    <t>10001</t>
-  </si>
-  <si>
-    <t>1153253338075103488</t>
-  </si>
-  <si>
-    <t>낯선 땅</t>
-  </si>
-  <si>
-    <t>Strange Lands</t>
-  </si>
-  <si>
-    <t>En territoire étranger</t>
-  </si>
-  <si>
-    <t>1000157</t>
-  </si>
-  <si>
-    <t>/complete prevmission 1000157
-/teleport -9912.28 625.15 -2807</t>
-  </si>
-  <si>
-    <t>8122573288984543489</t>
-  </si>
-  <si>
-    <t>주변 탐색하기</t>
-  </si>
-  <si>
-    <t>Search the surroundings</t>
-  </si>
-  <si>
-    <t>Fouiller les alentours</t>
-  </si>
-  <si>
-    <t>6951248150162047233</t>
-  </si>
-  <si>
-    <t>오두막으로 이동하기</t>
-  </si>
-  <si>
-    <t>Head to the cabin</t>
-  </si>
-  <si>
-    <t>11417051416787681537</t>
-  </si>
-  <si>
-    <t>마리우스와 대화하기</t>
-  </si>
-  <si>
-    <t>Talk to Marius</t>
-  </si>
-  <si>
-    <t>Parler à Marius</t>
-  </si>
-  <si>
-    <t>8695529167585804545</t>
-  </si>
-  <si>
-    <t>루소와 대화하기</t>
-  </si>
-  <si>
-    <t>Talk to Ross</t>
-  </si>
-  <si>
-    <t>Parler à Ross</t>
-  </si>
-  <si>
-    <t>14797137245051552001</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <name val="Calibri"/>
+      <b val="1"/>
       <sz val="11"/>
-      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="7">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -213,45 +91,104 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="9">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top" wrapText="1" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top" wrapText="1" indent="3"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -539,207 +476,345 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C22" sqref="C21:C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="27" customWidth="1"/>
-    <col min="2" max="2" width="30.85546875" customWidth="1"/>
-    <col min="3" max="3" width="58" customWidth="1"/>
-    <col min="4" max="4" width="13" customWidth="1"/>
-    <col min="5" max="5" width="37" customWidth="1"/>
-    <col min="6" max="6" width="10" customWidth="1"/>
-    <col min="7" max="7" width="50" customWidth="1"/>
-    <col min="8" max="8" width="25" customWidth="1"/>
-    <col min="9" max="9" width="20" customWidth="1"/>
+    <col width="27" customWidth="1" min="1" max="1"/>
+    <col width="30.85546875" customWidth="1" min="2" max="2"/>
+    <col width="58" customWidth="1" min="3" max="3"/>
+    <col width="13" customWidth="1" min="4" max="4"/>
+    <col width="37" customWidth="1" min="5" max="5"/>
+    <col width="10" customWidth="1" min="6" max="6"/>
+    <col width="50" customWidth="1" min="7" max="7"/>
+    <col width="25" customWidth="1" min="8" max="8"/>
+    <col width="20" customWidth="1" min="9" max="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Original</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>ENG</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>FRE</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>StringKey</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Command</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>STATUS</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>COMMENT</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>STRINGID</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>SCREENSHOT</t>
+        </is>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I2" s="2"/>
+    <row r="2">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>Prologue. 깊은 밤</t>
+        </is>
+      </c>
+      <c r="B2" s="2" t="inlineStr">
+        <is>
+          <t>Prologue. The Dead of Night</t>
+        </is>
+      </c>
+      <c r="C2" s="2" t="inlineStr">
+        <is>
+          <t>Prologue. 깊은 밤</t>
+        </is>
+      </c>
+      <c r="D2" s="2" t="n"/>
+      <c r="E2" s="2" t="n"/>
+      <c r="F2" s="2" t="inlineStr">
+        <is>
+          <t>NO ISSUE</t>
+        </is>
+      </c>
+      <c r="G2" s="2" t="inlineStr">
+        <is>
+          <t>Typo in Korean text</t>
+        </is>
+      </c>
+      <c r="H2" s="2" t="inlineStr">
+        <is>
+          <t>1887229000892285192</t>
+        </is>
+      </c>
+      <c r="I2" s="2" t="n"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="I3" s="4"/>
+    <row r="3">
+      <c r="A3" s="3" t="inlineStr">
+        <is>
+          <t>Prologue. 깊은 밤</t>
+        </is>
+      </c>
+      <c r="B3" s="3" t="inlineStr">
+        <is>
+          <t>Prologue. The Dead of Night [NEW ROW]</t>
+        </is>
+      </c>
+      <c r="C3" s="3" t="inlineStr">
+        <is>
+          <t>Prologue. 깊은 밤</t>
+        </is>
+      </c>
+      <c r="D3" s="4" t="inlineStr">
+        <is>
+          <t>10001</t>
+        </is>
+      </c>
+      <c r="E3" s="4" t="n"/>
+      <c r="F3" s="4" t="n"/>
+      <c r="G3" s="4" t="n"/>
+      <c r="H3" s="4" t="inlineStr">
+        <is>
+          <t>1887229000892285192</t>
+        </is>
+      </c>
+      <c r="I3" s="4" t="n"/>
     </row>
-    <row r="4" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="I4" s="6"/>
+    <row r="4" ht="30" customHeight="1">
+      <c r="A4" s="5" t="inlineStr">
+        <is>
+          <t>오두막으로 이동하기</t>
+        </is>
+      </c>
+      <c r="B4" s="5" t="inlineStr">
+        <is>
+          <t>Head to the cabin</t>
+        </is>
+      </c>
+      <c r="C4" s="5" t="inlineStr">
+        <is>
+          <t>오두막으로 이동하기</t>
+        </is>
+      </c>
+      <c r="D4" s="6" t="inlineStr">
+        <is>
+          <t>1000157</t>
+        </is>
+      </c>
+      <c r="E4" s="6" t="inlineStr">
+        <is>
+          <t>/complete prevmission 1000157
+/teleport -9912.28 625.15 -2807</t>
+        </is>
+      </c>
+      <c r="F4" s="6" t="inlineStr">
+        <is>
+          <t>BLOCKED</t>
+        </is>
+      </c>
+      <c r="G4" s="6" t="inlineStr">
+        <is>
+          <t>Need context for this French text</t>
+        </is>
+      </c>
+      <c r="H4" s="6" t="inlineStr">
+        <is>
+          <t>11417051416787681537</t>
+        </is>
+      </c>
+      <c r="I4" s="6" t="n"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="I5" s="8"/>
+    <row r="5">
+      <c r="A5" s="7" t="inlineStr">
+        <is>
+          <t>주변 탐색하기</t>
+        </is>
+      </c>
+      <c r="B5" s="7" t="inlineStr">
+        <is>
+          <t>Search the surroundings</t>
+        </is>
+      </c>
+      <c r="C5" s="7" t="inlineStr">
+        <is>
+          <t>Fouiller les alentours</t>
+        </is>
+      </c>
+      <c r="D5" s="8" t="n"/>
+      <c r="E5" s="8" t="n"/>
+      <c r="F5" s="8" t="n"/>
+      <c r="G5" s="8" t="n"/>
+      <c r="H5" s="8" t="inlineStr">
+        <is>
+          <t>6951248150162047233</t>
+        </is>
+      </c>
+      <c r="I5" s="8" t="n"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="I6" s="8"/>
+    <row r="6">
+      <c r="A6" s="7" t="inlineStr">
+        <is>
+          <t>기습</t>
+        </is>
+      </c>
+      <c r="B6" s="7" t="inlineStr">
+        <is>
+          <t>Ambush</t>
+        </is>
+      </c>
+      <c r="C6" s="7" t="inlineStr">
+        <is>
+          <t>기습</t>
+        </is>
+      </c>
+      <c r="D6" s="8" t="inlineStr">
+        <is>
+          <t>10001</t>
+        </is>
+      </c>
+      <c r="E6" s="8" t="n"/>
+      <c r="F6" s="8" t="n"/>
+      <c r="G6" s="8" t="n"/>
+      <c r="H6" s="8" t="inlineStr">
+        <is>
+          <t>1153253338075103488</t>
+        </is>
+      </c>
+      <c r="I6" s="8" t="n"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="I7" s="8"/>
+    <row r="7">
+      <c r="A7" s="7" t="inlineStr">
+        <is>
+          <t>마리우스와 대화하기</t>
+        </is>
+      </c>
+      <c r="B7" s="7" t="inlineStr">
+        <is>
+          <t>Talk to Marius</t>
+        </is>
+      </c>
+      <c r="C7" s="7" t="inlineStr">
+        <is>
+          <t>Parler à Marius</t>
+        </is>
+      </c>
+      <c r="D7" s="8" t="n"/>
+      <c r="E7" s="8" t="n"/>
+      <c r="F7" s="8" t="n"/>
+      <c r="G7" s="8" t="n"/>
+      <c r="H7" s="8" t="inlineStr">
+        <is>
+          <t>8695529167585804545</t>
+        </is>
+      </c>
+      <c r="I7" s="8" t="n"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="I8" s="8"/>
+    <row r="8">
+      <c r="A8" s="7" t="inlineStr">
+        <is>
+          <t>낯선 땅</t>
+        </is>
+      </c>
+      <c r="B8" s="7" t="inlineStr">
+        <is>
+          <t>Strange Lands</t>
+        </is>
+      </c>
+      <c r="C8" s="7" t="inlineStr">
+        <is>
+          <t>En territoire étranger</t>
+        </is>
+      </c>
+      <c r="D8" s="8" t="inlineStr">
+        <is>
+          <t>1000157</t>
+        </is>
+      </c>
+      <c r="E8" s="8" t="inlineStr">
+        <is>
+          <t>/complete prevmission 1000157
+/teleport -9912.28 625.15 -2807</t>
+        </is>
+      </c>
+      <c r="F8" s="8" t="inlineStr">
+        <is>
+          <t>ISSUE</t>
+        </is>
+      </c>
+      <c r="G8" s="8" t="inlineStr">
+        <is>
+          <t>Looks good in French</t>
+        </is>
+      </c>
+      <c r="H8" s="8" t="inlineStr">
+        <is>
+          <t>8122573288984543489</t>
+        </is>
+      </c>
+      <c r="I8" s="8" t="n"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>루소와 대화하기</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Talk to Ross</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Parler à Ross</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>14797137245051552001</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F2:F8" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation sqref="F2:F8" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="1" type="list">
       <formula1>"ISSUE,NO ISSUE,BLOCKED"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
-<clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
-  <clbl:label id="{d41fc1c0-0c04-4fba-ba91-10b5dedc7df0}" enabled="1" method="Privileged" siteId="{4cce2d09-7ef7-4338-acc3-060d08fc21a4}" contentBits="0" removed="0"/>
-</clbl:labelList>
 </file>